--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="160">
   <si>
     <t>Sno</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>BarWithLine_Axis_Title</t>
+  </si>
+  <si>
+    <t>BarWithLine_Chart_Title</t>
+  </si>
+  <si>
+    <t>BarWithLine_Chart_Style</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1036,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1081,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>84</v>
@@ -1173,10 +1182,10 @@
         <v>87</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1202,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>13</v>
@@ -1390,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>13</v>
@@ -1470,7 +1479,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>13</v>
@@ -1490,7 +1499,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>13</v>
@@ -1510,7 +1519,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>13</v>
@@ -1710,7 +1719,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>13</v>
@@ -1730,7 +1739,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>13</v>
@@ -1750,7 +1759,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>13</v>
@@ -2817,28 +2826,68 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="6" t="s">
+      <c r="D83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="6" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F83">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEDGE_New\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEDGE_TESTING_Frmaework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Module_Selection" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="125">
   <si>
     <t>Sno</t>
   </si>
@@ -73,15 +73,9 @@
     <t>9</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>SmokeTesting</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Testcase Name</t>
   </si>
   <si>
@@ -100,33 +94,12 @@
     <t>DashPro</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>DashPro_Admin</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>DashPro_All_Charts</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>Tables_Columns</t>
   </si>
   <si>
@@ -139,12 +112,6 @@
     <t>Tables_TableFormat</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>Bar_Axes</t>
   </si>
   <si>
@@ -166,21 +133,6 @@
     <t>Bar_ChartFormat_Others</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>Bar_ChartFormat_DataLabel</t>
   </si>
   <si>
@@ -214,33 +166,9 @@
     <t>Stacked_Bar_ChartFormat_Others</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>Pivot_Panel</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>Pivot_ChartTitle</t>
   </si>
   <si>
@@ -268,9 +196,6 @@
     <t>https://analysis.sedge.ai</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -280,9 +205,6 @@
     <t>Flag3</t>
   </si>
   <si>
-    <t>https://sedgealxlrp.solverminds.net/auth/login</t>
-  </si>
-  <si>
     <t>TestDataFileName</t>
   </si>
   <si>
@@ -298,9 +220,6 @@
     <t>https://sedgetesting.solverminds.net/</t>
   </si>
   <si>
-    <t>1-10</t>
-  </si>
-  <si>
     <t>Stacked_Column_Axis_Title</t>
   </si>
   <si>
@@ -358,69 +277,12 @@
     <t>Grouped_Bar_Data_Labels</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>Grouped_Bar_Legends</t>
   </si>
   <si>
     <t>Grouped_Bar_Others</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>Grouped_Column_Axes</t>
   </si>
   <si>
@@ -484,9 +346,6 @@
     <t>Gantt_ChartFormat_Others</t>
   </si>
   <si>
-    <t>Text_Background</t>
-  </si>
-  <si>
     <t>Text_Chart_Title</t>
   </si>
   <si>
@@ -505,7 +364,43 @@
     <t>BarWithLine_Chart_Style</t>
   </si>
   <si>
+    <t>DashPro_Card</t>
+  </si>
+  <si>
+    <t>DashPro_Text</t>
+  </si>
+  <si>
+    <t>DashPro_SparkLine</t>
+  </si>
+  <si>
+    <t>Project_Selection</t>
+  </si>
+  <si>
+    <t>SparkLine_Table_Format</t>
+  </si>
+  <si>
+    <t>SparkLine_Format</t>
+  </si>
+  <si>
+    <t>Custom_Pivot_Axes</t>
+  </si>
+  <si>
+    <t>Custom_Pivot_Table_Format</t>
+  </si>
+  <si>
+    <t>WaterFall_Axes</t>
+  </si>
+  <si>
+    <t>WaterFall_Axis_Title</t>
+  </si>
+  <si>
+    <t>WaterFall_ChartFormat_Chart_Style</t>
+  </si>
+  <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>WaterFall_ChartFormat_Data_Labels</t>
   </si>
 </sst>
 </file>
@@ -979,7 +874,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1004,7 +899,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -1015,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -1035,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,22 +950,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1078,22 +973,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1101,22 +996,22 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1124,22 +1019,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1147,22 +1042,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1170,22 +1065,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1093,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://analysis.sedge.ai"/>
+    <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3" display="https://analysis.sedge.ai"/>
     <hyperlink ref="D5" r:id="rId4"/>
@@ -1211,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,16 +1128,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1250,10 +1145,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
@@ -1270,10 +1165,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>5</v>
@@ -1290,19 +1185,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1310,13 +1205,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>13</v>
@@ -1330,13 +1225,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>5</v>
@@ -1350,16 +1245,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>13</v>
@@ -1370,19 +1265,19 @@
         <v>11</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1390,910 +1285,910 @@
         <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="B32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="D45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="D47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="B54" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>13</v>
@@ -2310,10 +2205,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>13</v>
@@ -2330,10 +2225,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>13</v>
@@ -2350,10 +2245,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>13</v>
@@ -2370,10 +2265,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>13</v>
@@ -2390,10 +2285,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>13</v>
@@ -2410,10 +2305,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>13</v>
@@ -2430,10 +2325,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>13</v>
@@ -2450,10 +2345,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>13</v>
@@ -2470,10 +2365,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>13</v>
@@ -2490,10 +2385,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>13</v>
@@ -2510,10 +2405,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>13</v>
@@ -2530,10 +2425,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>13</v>
@@ -2550,10 +2445,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>13</v>
@@ -2570,10 +2465,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>13</v>
@@ -2590,10 +2485,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>13</v>
@@ -2610,10 +2505,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>13</v>
@@ -2630,10 +2525,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>13</v>
@@ -2650,10 +2545,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>13</v>
@@ -2670,10 +2565,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>13</v>
@@ -2690,10 +2585,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>13</v>
@@ -2710,10 +2605,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>13</v>
@@ -2730,10 +2625,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>13</v>
@@ -2750,10 +2645,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>13</v>
@@ -2770,10 +2665,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>13</v>
@@ -2790,10 +2685,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>13</v>
@@ -2802,7 +2697,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2810,10 +2705,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>13</v>
@@ -2822,7 +2717,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2830,10 +2725,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>13</v>
@@ -2842,7 +2737,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2850,10 +2745,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>13</v>
@@ -2862,32 +2757,252 @@
         <v>5</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
+      <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="6" t="s">
+      <c r="B83" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>94</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="6" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F94">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="130">
   <si>
     <t>Sno</t>
   </si>
@@ -397,10 +397,25 @@
     <t>WaterFall_ChartFormat_Chart_Style</t>
   </si>
   <si>
+    <t>WaterFall_ChartFormat_Data_Labels</t>
+  </si>
+  <si>
+    <t>Radar_Line_Axes</t>
+  </si>
+  <si>
+    <t>Radar_Line_Axis_Title</t>
+  </si>
+  <si>
+    <t>Radar_Line_ChartFormat_Chart_Style</t>
+  </si>
+  <si>
+    <t>Radar_Line_ChartFormat_Legend</t>
+  </si>
+  <si>
+    <t>Radar_Line_ChartFormat_Others</t>
+  </si>
+  <si>
     <t>1,2</t>
-  </si>
-  <si>
-    <t>WaterFall_ChartFormat_Data_Labels</t>
   </si>
 </sst>
 </file>
@@ -931,7 +946,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1092,7 @@
         <v>61</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>52</v>
@@ -1106,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1212,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1374,7 +1389,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>13</v>
@@ -1697,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1717,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1737,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1757,7 +1772,7 @@
         <v>5</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1777,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1797,7 +1812,7 @@
         <v>5</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1817,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1837,7 +1852,7 @@
         <v>5</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1857,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,7 +1892,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1897,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,7 +1932,7 @@
         <v>5</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1937,7 +1952,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1957,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2968,41 +2983,141 @@
         <v>25</v>
       </c>
       <c r="C93" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
+      <c r="D94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B95" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>98</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C99" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="6" t="s">
+      <c r="D99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="6" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F99">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -946,7 +946,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>5</v>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Module_Selection" sheetId="3" r:id="rId1"/>
@@ -945,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>5</v>
@@ -3032,7 +3032,7 @@
         <v>5</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="165">
   <si>
     <t>Sno</t>
   </si>
@@ -415,7 +415,112 @@
     <t>Radar_Line_ChartFormat_Others</t>
   </si>
   <si>
+    <t>Network_Axes</t>
+  </si>
+  <si>
+    <t>Network_ChartFormat_Chart_Style</t>
+  </si>
+  <si>
+    <t>Network_ChartFormat_Data_Labels</t>
+  </si>
+  <si>
+    <t>Network_ChartFormat_Legends</t>
+  </si>
+  <si>
+    <t>Network_ChartFormat_Others</t>
+  </si>
+  <si>
+    <t>Network_Chart_Title</t>
+  </si>
+  <si>
+    <t>TreeMap_Axes</t>
+  </si>
+  <si>
+    <t>TreeMap_Chart_Title</t>
+  </si>
+  <si>
+    <t>TreeMap_ChartFormat_Chart_Style</t>
+  </si>
+  <si>
+    <t>TreeMap_ChartFormat_Others</t>
+  </si>
+  <si>
+    <t>TreeMap_ChartFormat_Data_Labels</t>
+  </si>
+  <si>
+    <t>Grouped_And_Sorted_Axes</t>
+  </si>
+  <si>
+    <t>Grouped_And_Sorted_Axis_Title</t>
+  </si>
+  <si>
+    <t>Grouped_And_Sorted_Chart_Style</t>
+  </si>
+  <si>
+    <t>Grouped_And_Sorted_Chart_Title</t>
+  </si>
+  <si>
+    <t>Grouped_And_Sorted_Data_Labels</t>
+  </si>
+  <si>
+    <t>Grouped_And_Sorted_Others</t>
+  </si>
+  <si>
+    <t>SparkLine_Chart_Title</t>
+  </si>
+  <si>
+    <t>Custom_Pivot_Chart_Title</t>
+  </si>
+  <si>
+    <t>WaterFall_Chart_Title</t>
+  </si>
+  <si>
+    <t>Radar_Line_Chart_Title</t>
+  </si>
+  <si>
+    <t>KPI_Card_Axes</t>
+  </si>
+  <si>
+    <t>KPI_Card_Chart_Title</t>
+  </si>
+  <si>
+    <t>KPI_Card_Table_Format</t>
+  </si>
+  <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>Heat_Map_Legend_Axes</t>
+  </si>
+  <si>
+    <t>Heat_Map_Legend_Axis_Title</t>
+  </si>
+  <si>
+    <t>Heat_Map_Legend_Chart_Title</t>
+  </si>
+  <si>
+    <t>Heat_Map_Legend_Chart_Style</t>
+  </si>
+  <si>
+    <t>Heat_Map_Legend_Data_Label</t>
+  </si>
+  <si>
+    <t>Heat_Map_Legend_Others</t>
+  </si>
+  <si>
+    <t>Multiple_Axis_Axes</t>
+  </si>
+  <si>
+    <t>Multiple_Axis_Axis_Title</t>
+  </si>
+  <si>
+    <t>Multiple_Axis_Chart_Title</t>
+  </si>
+  <si>
+    <t>Multiple_Axis_Chart_Style</t>
+  </si>
+  <si>
+    <t>Multiple_Axis_Data_Labels</t>
   </si>
 </sst>
 </file>
@@ -889,7 +994,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +1051,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1108,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1092,7 +1197,7 @@
         <v>61</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>52</v>
@@ -1121,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1271,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>5</v>
@@ -1186,7 +1291,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>13</v>
@@ -1206,7 +1311,7 @@
         <v>115</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>13</v>
@@ -1226,7 +1331,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>13</v>
@@ -1246,13 +1351,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,7 +1371,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>13</v>
@@ -1286,7 +1391,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>13</v>
@@ -1326,7 +1431,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>13</v>
@@ -1349,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>13</v>
@@ -1369,7 +1474,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>13</v>
@@ -1469,7 +1574,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>13</v>
@@ -1489,7 +1594,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>13</v>
@@ -1509,7 +1614,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>13</v>
@@ -1526,7 +1631,7 @@
         <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>5</v>
@@ -1569,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>13</v>
@@ -1586,7 +1691,7 @@
         <v>36</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>5</v>
@@ -1606,7 +1711,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>5</v>
@@ -1626,7 +1731,7 @@
         <v>34</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>5</v>
@@ -1706,7 +1811,7 @@
         <v>40</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>5</v>
@@ -1766,7 +1871,7 @@
         <v>74</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>5</v>
@@ -1786,7 +1891,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>5</v>
@@ -1806,7 +1911,7 @@
         <v>44</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>5</v>
@@ -1826,7 +1931,7 @@
         <v>45</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>5</v>
@@ -2837,13 +2942,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>13</v>
@@ -2857,13 +2962,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>13</v>
@@ -2877,13 +2982,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>13</v>
@@ -2897,13 +3002,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>13</v>
@@ -2917,13 +3022,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>13</v>
@@ -2937,13 +3042,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>13</v>
@@ -2957,13 +3062,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>13</v>
@@ -2977,13 +3082,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>13</v>
@@ -2997,13 +3102,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>13</v>
@@ -3012,18 +3117,18 @@
         <v>5</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>13</v>
@@ -3037,13 +3142,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>13</v>
@@ -3052,18 +3157,18 @@
         <v>5</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>13</v>
@@ -3072,52 +3177,752 @@
         <v>5</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
+        <v>94</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>94</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>95</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>96</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98" s="5" t="s">
+      <c r="B102" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
+      <c r="D102" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B103" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>99</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>100</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
+        <v>101</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>102</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <v>103</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
+        <v>104</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
+        <v>105</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
+        <v>106</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <v>107</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
+        <v>108</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
+        <v>109</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <v>110</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
+        <v>111</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <v>112</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
+        <v>113</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
+        <v>114</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
+        <v>115</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
+        <v>116</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
+        <v>117</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
+        <v>118</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
+        <v>119</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>120</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
+        <v>121</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>122</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
+        <v>123</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="5">
+        <v>124</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
+        <v>125</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="5">
+        <v>126</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
+        <v>127</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
+        <v>128</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>129</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C134" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="6" t="s">
+      <c r="D134" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" s="6" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F134">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
